--- a/Course Data .xlsx
+++ b/Course Data .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517DBCFA-FA77-4C3A-985B-D7FEFCD7106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E16972-2B89-4ADF-BF11-D70F32E7E7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{410F2C53-FB9F-4876-BBCE-B4C2E6AAF8FD}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{410F2C53-FB9F-4876-BBCE-B4C2E6AAF8FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Course</t>
   </si>
@@ -54,16 +54,100 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Getting started with enterprise grade AI</t>
+  </si>
+  <si>
+    <t>Getting Started with Enterprise-grade AI (ibm.com)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>AI, AI history, AI industry adoption, AI in law, AI job market, Chatbots, Deep learning, Machine learning, NLP, Robotics, Self-driving cars, Visual recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginner </t>
+  </si>
+  <si>
+    <t>Building trustworthy AI enterprise solutions</t>
+  </si>
+  <si>
+    <t>AI1</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>AI, AI ethics, AI in law, AI jobs, Autonomous cars, Language translator, Robotics, Speech-to-text, Text-to-speech, Tone analyzer, Watson assistant, Watson discovery</t>
+  </si>
+  <si>
+    <t>AI3</t>
+  </si>
+  <si>
+    <t>Ethical AI applications of deep learning and computer vision</t>
+  </si>
+  <si>
+    <t>AI1,AI2</t>
+  </si>
+  <si>
+    <t>AI, AI ethics, AI in transportation, AI policy, Decision trees, Deep learning, Deep learning frameworks, D&amp;I, Gradient descent, Image classification, Machine learning, Multilayer perceptron, Neural networks, Object identification, Watson visual recognition.</t>
+  </si>
+  <si>
+    <t>Journey to Cloud: envisioning your solution</t>
+  </si>
+  <si>
+    <t>API, Application Deployment, Application Testing, Business Framing, Cloud Adoption, Cloud Computing, Cloud Migration, Create a Pilot Cloud Application, Digital Transformation, Digital Transformation Drivers, Empathy Mapping, Enterprise Design Thinking, Hybrid Cloud, IaaS, IBM Code Engine, IBM Garage Methodology, Introduction to Agile Practices, Legacy IT Architecture, Microservices, Minimal Viable Product, PaaS, Private Cloud, Public Cloud, SaaS</t>
+  </si>
+  <si>
+    <t>Cloud1</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Advanced</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF161616"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF161616"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF161616"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +170,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,35 +501,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F66D18A-1084-4F53-923C-B73C47E25E7B}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://keyskill-clms.comprehend.ibm.com/pluginfile.php/131676/mod_tincanlaunch/content/index_lms.html?endpoint=https%3A%2F%2Fcars-us.comprehend.ibm.com%2Fdata%2FxAPI%2F&amp;auth=Basic%20YTVkZjAwN2I5M2RiN2QwOTJiYjk5NGI2NThkMzc4Njc1MjJhMzNmODo4NTQ0ZDE3OGE3MTJmOGYwMjc3YTcxNWQzMTM4OGZmY2RjYmYzMTU0&amp;actor=%7B%22objectType%22%3A%22Agent%22%2C%22name%22%3A%22Jonas%20Amirar%22%2C%22mbox%22%3A%22mailto%3Ajonas.amirar%40durham.ac.uk%22%7D&amp;registration=1f8dbcd9-c953-4d49-a716-0e30d1f001a7&amp;activity_id=http%3A%2F%2F5dMXtFGnHvM_course_id" xr:uid="{D1C26C1A-12A2-4120-BA6F-0515FA9F700F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>